--- a/Automation 2/form_fields.xlsx
+++ b/Automation 2/form_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\Desktop\Automation\PDF-Automation\Automation 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBC3E63-8198-4A60-B95E-4FB3A63A81D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D3EDBB-4F75-4CB2-9C10-F03726316694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>B_N</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="170">
   <si>
     <t>Sejal Infotech</t>
   </si>
@@ -39,15 +36,6 @@
     <t>Sai Commercials</t>
   </si>
   <si>
-    <t>PED</t>
-  </si>
-  <si>
-    <t>DBA</t>
-  </si>
-  <si>
-    <t>APP-N</t>
-  </si>
-  <si>
     <t>01.04.2023</t>
   </si>
   <si>
@@ -66,20 +54,503 @@
     <t xml:space="preserve">Palestine </t>
   </si>
   <si>
-    <t>APP_MA</t>
-  </si>
-  <si>
     <t>Linton Street</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>a23</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>a25</t>
+  </si>
+  <si>
+    <t>a26</t>
+  </si>
+  <si>
+    <t>a27</t>
+  </si>
+  <si>
+    <t>a28</t>
+  </si>
+  <si>
+    <t>a29</t>
+  </si>
+  <si>
+    <t>a30</t>
+  </si>
+  <si>
+    <t>a31</t>
+  </si>
+  <si>
+    <t>a32</t>
+  </si>
+  <si>
+    <t>a33</t>
+  </si>
+  <si>
+    <t>a34</t>
+  </si>
+  <si>
+    <t>a35</t>
+  </si>
+  <si>
+    <t>a36</t>
+  </si>
+  <si>
+    <t>a37</t>
+  </si>
+  <si>
+    <t>a38</t>
+  </si>
+  <si>
+    <t>a39</t>
+  </si>
+  <si>
+    <t>a40</t>
+  </si>
+  <si>
+    <t>a41</t>
+  </si>
+  <si>
+    <t>a42</t>
+  </si>
+  <si>
+    <t>a43</t>
+  </si>
+  <si>
+    <t>a44</t>
+  </si>
+  <si>
+    <t>a45</t>
+  </si>
+  <si>
+    <t>a46</t>
+  </si>
+  <si>
+    <t>a47</t>
+  </si>
+  <si>
+    <t>a48</t>
+  </si>
+  <si>
+    <t>a49</t>
+  </si>
+  <si>
+    <t>a50</t>
+  </si>
+  <si>
+    <t>a51</t>
+  </si>
+  <si>
+    <t>a52</t>
+  </si>
+  <si>
+    <t>a53</t>
+  </si>
+  <si>
+    <t>a54</t>
+  </si>
+  <si>
+    <t>a55</t>
+  </si>
+  <si>
+    <t>a56</t>
+  </si>
+  <si>
+    <t>a57</t>
+  </si>
+  <si>
+    <t>a58</t>
+  </si>
+  <si>
+    <t>a59</t>
+  </si>
+  <si>
+    <t>a60</t>
+  </si>
+  <si>
+    <t>a61</t>
+  </si>
+  <si>
+    <t>a62</t>
+  </si>
+  <si>
+    <t>a63</t>
+  </si>
+  <si>
+    <t>a64</t>
+  </si>
+  <si>
+    <t>a65</t>
+  </si>
+  <si>
+    <t>a66</t>
+  </si>
+  <si>
+    <t>a67</t>
+  </si>
+  <si>
+    <t>a68</t>
+  </si>
+  <si>
+    <t>a69</t>
+  </si>
+  <si>
+    <t>a70</t>
+  </si>
+  <si>
+    <t>a71</t>
+  </si>
+  <si>
+    <t>a72</t>
+  </si>
+  <si>
+    <t>a73</t>
+  </si>
+  <si>
+    <t>a74</t>
+  </si>
+  <si>
+    <t>a75</t>
+  </si>
+  <si>
+    <t>a76</t>
+  </si>
+  <si>
+    <t>a77</t>
+  </si>
+  <si>
+    <t>a78</t>
+  </si>
+  <si>
+    <t>a79</t>
+  </si>
+  <si>
+    <t>a80</t>
+  </si>
+  <si>
+    <t>a81</t>
+  </si>
+  <si>
+    <t>a82</t>
+  </si>
+  <si>
+    <t>a83</t>
+  </si>
+  <si>
+    <t>a84</t>
+  </si>
+  <si>
+    <t>a85</t>
+  </si>
+  <si>
+    <t>a86</t>
+  </si>
+  <si>
+    <t>a87</t>
+  </si>
+  <si>
+    <t>a88</t>
+  </si>
+  <si>
+    <t>a89</t>
+  </si>
+  <si>
+    <t>a90</t>
+  </si>
+  <si>
+    <t>a91</t>
+  </si>
+  <si>
+    <t>a92</t>
+  </si>
+  <si>
+    <t>a93</t>
+  </si>
+  <si>
+    <t>a94</t>
+  </si>
+  <si>
+    <t>a95</t>
+  </si>
+  <si>
+    <t>a96</t>
+  </si>
+  <si>
+    <t>a97</t>
+  </si>
+  <si>
+    <t>a98</t>
+  </si>
+  <si>
+    <t>a99</t>
+  </si>
+  <si>
+    <t>a100</t>
+  </si>
+  <si>
+    <t>a101</t>
+  </si>
+  <si>
+    <t>a102</t>
+  </si>
+  <si>
+    <t>a103</t>
+  </si>
+  <si>
+    <t>a104</t>
+  </si>
+  <si>
+    <t>a105</t>
+  </si>
+  <si>
+    <t>a106</t>
+  </si>
+  <si>
+    <t>a107</t>
+  </si>
+  <si>
+    <t>a108</t>
+  </si>
+  <si>
+    <t>a109</t>
+  </si>
+  <si>
+    <t>a110</t>
+  </si>
+  <si>
+    <t>a111</t>
+  </si>
+  <si>
+    <t>a112</t>
+  </si>
+  <si>
+    <t>a113</t>
+  </si>
+  <si>
+    <t>a114</t>
+  </si>
+  <si>
+    <t>a115</t>
+  </si>
+  <si>
+    <t>a116</t>
+  </si>
+  <si>
+    <t>a117</t>
+  </si>
+  <si>
+    <t>a118</t>
+  </si>
+  <si>
+    <t>a119</t>
+  </si>
+  <si>
+    <t>a120</t>
+  </si>
+  <si>
+    <t>a121</t>
+  </si>
+  <si>
+    <t>a122</t>
+  </si>
+  <si>
+    <t>a123</t>
+  </si>
+  <si>
+    <t>a124</t>
+  </si>
+  <si>
+    <t>a125</t>
+  </si>
+  <si>
+    <t>a126</t>
+  </si>
+  <si>
+    <t>a127</t>
+  </si>
+  <si>
+    <t>a128</t>
+  </si>
+  <si>
+    <t>a129</t>
+  </si>
+  <si>
+    <t>a130</t>
+  </si>
+  <si>
+    <t>a131</t>
+  </si>
+  <si>
+    <t>a132</t>
+  </si>
+  <si>
+    <t>a133</t>
+  </si>
+  <si>
+    <t>a134</t>
+  </si>
+  <si>
+    <t>a135</t>
+  </si>
+  <si>
+    <t>a136</t>
+  </si>
+  <si>
+    <t>a137</t>
+  </si>
+  <si>
+    <t>a138</t>
+  </si>
+  <si>
+    <t>a139</t>
+  </si>
+  <si>
+    <t>a140</t>
+  </si>
+  <si>
+    <t>a141</t>
+  </si>
+  <si>
+    <t>a142</t>
+  </si>
+  <si>
+    <t>a143</t>
+  </si>
+  <si>
+    <t>a144</t>
+  </si>
+  <si>
+    <t>a145</t>
+  </si>
+  <si>
+    <t>a146</t>
+  </si>
+  <si>
+    <t>a147</t>
+  </si>
+  <si>
+    <t>a148</t>
+  </si>
+  <si>
+    <t>a149</t>
+  </si>
+  <si>
+    <t>a150</t>
+  </si>
+  <si>
+    <t>a151</t>
+  </si>
+  <si>
+    <t>a152</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,83 +858,570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:EV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" customWidth="1"/>
+    <col min="53" max="53" width="11.7265625" customWidth="1"/>
+    <col min="54" max="54" width="10.1796875" customWidth="1"/>
+    <col min="55" max="55" width="11.26953125" customWidth="1"/>
+    <col min="56" max="56" width="11.1796875" customWidth="1"/>
+    <col min="57" max="57" width="10.453125" customWidth="1"/>
+    <col min="58" max="58" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.81640625" customWidth="1"/>
+    <col min="86" max="86" width="10.26953125" customWidth="1"/>
+    <col min="97" max="97" width="10.81640625" customWidth="1"/>
+    <col min="106" max="106" width="12.26953125" customWidth="1"/>
+    <col min="107" max="107" width="13.81640625" customWidth="1"/>
+    <col min="118" max="118" width="11.26953125" customWidth="1"/>
+    <col min="130" max="130" width="10.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>142</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>157</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>158</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:152" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>